--- a/Notebooks/pandas tutorial/Excel and CSV Files/Ankara Weather Data.xlsx
+++ b/Notebooks/pandas tutorial/Excel and CSV Files/Ankara Weather Data.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\mhyms\Documents\GitHub\Python-Projects\Notebooks\pandas tutorial\Excel and CSV Files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{24044BA3-B855-4E10-943C-C69185F58541}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0132F6AE-CFB9-471F-8164-AECE2539714C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
